--- a/Task3-Agent/RobotMaze-1000Episodes.xlsx
+++ b/Task3-Agent/RobotMaze-1000Episodes.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,16 +442,26 @@
           <t>Epsilon</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Determinista gano?</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estocastico gano? </t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>737503658.0</t>
+          <t>21375515.0</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>737503658.0</t>
+          <t>21375515.0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -462,18 +472,28 @@
       <c r="D2" t="inlineStr">
         <is>
           <t>0.3</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Si</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>17541688084.0</t>
+          <t>22541650.0</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>17541688084.0</t>
+          <t>22541650.0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -484,18 +504,28 @@
       <c r="D3" t="inlineStr">
         <is>
           <t>0.5</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Si</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>21429377868.0</t>
+          <t>32158140990.0</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>21429377868.0</t>
+          <t>32158140990.0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -506,18 +536,28 @@
       <c r="D4" t="inlineStr">
         <is>
           <t>0.7</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Si</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>10243755873.0</t>
+          <t>206108350.0</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>10243755873.0</t>
+          <t>206108350.0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -528,18 +568,28 @@
       <c r="D5" t="inlineStr">
         <is>
           <t>0.3</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Si</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6933795.0</t>
+          <t>18144089866.0</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6933795.0</t>
+          <t>18144089866.0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -550,18 +600,28 @@
       <c r="D6" t="inlineStr">
         <is>
           <t>0.5</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Si</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>81964508.0</t>
+          <t>21611598.0</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>81964508.0</t>
+          <t>21611598.0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -572,18 +632,28 @@
       <c r="D7" t="inlineStr">
         <is>
           <t>0.7</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Si</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>77098607537.0</t>
+          <t>13974171064.0</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>77098607537.0</t>
+          <t>13974171064.0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -594,18 +664,28 @@
       <c r="D8" t="inlineStr">
         <is>
           <t>0.3</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Si</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>390432370325.0</t>
+          <t>2876282257.0</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>390432370325.0</t>
+          <t>2876282257.0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -616,18 +696,28 @@
       <c r="D9" t="inlineStr">
         <is>
           <t>0.5</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Si</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>37367641021.0</t>
+          <t>6243987567.0</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>37367641021.0</t>
+          <t>6243987567.0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -638,18 +728,28 @@
       <c r="D10" t="inlineStr">
         <is>
           <t>0.7</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Si</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>29404714101.0</t>
+          <t>2278239109.0</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>29404714101.0</t>
+          <t>2278239109.0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -660,18 +760,28 @@
       <c r="D11" t="inlineStr">
         <is>
           <t>0.3</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Si</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>70794648821.0</t>
+          <t>2421640556.0</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>70794648821.0</t>
+          <t>2421640556.0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -682,18 +792,28 @@
       <c r="D12" t="inlineStr">
         <is>
           <t>0.5</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Si</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>346634157.0</t>
+          <t>1006379216.0</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>346634157.0</t>
+          <t>1006379216.0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -704,18 +824,28 @@
       <c r="D13" t="inlineStr">
         <is>
           <t>0.7</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Si</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2948556911.0</t>
+          <t>19440876103.0</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2948556911.0</t>
+          <t>19440876103.0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -726,18 +856,28 @@
       <c r="D14" t="inlineStr">
         <is>
           <t>0.3</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Si</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2422335933.0</t>
+          <t>151697381.0</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2422335933.0</t>
+          <t>151697381.0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -748,18 +888,28 @@
       <c r="D15" t="inlineStr">
         <is>
           <t>0.5</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Si</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>5483518308.0</t>
+          <t>439088994300.0</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>5483518308.0</t>
+          <t>439088994300.0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -770,18 +920,28 @@
       <c r="D16" t="inlineStr">
         <is>
           <t>0.7</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Si</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>11707037225.0</t>
+          <t>25239103511.0</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>11707037225.0</t>
+          <t>25239103511.0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -792,18 +952,28 @@
       <c r="D17" t="inlineStr">
         <is>
           <t>0.3</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Si</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>81442658540.0</t>
+          <t>19736189480.0</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>81442658540.0</t>
+          <t>19736189480.0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -814,18 +984,28 @@
       <c r="D18" t="inlineStr">
         <is>
           <t>0.5</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Si</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>16046747015.0</t>
+          <t>102036202.0</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>16046747015.0</t>
+          <t>102036202.0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -836,18 +1016,28 @@
       <c r="D19" t="inlineStr">
         <is>
           <t>0.7</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Si</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>113075597.0</t>
+          <t>512958161.0</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>113075597.0</t>
+          <t>512958161.0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -858,18 +1048,28 @@
       <c r="D20" t="inlineStr">
         <is>
           <t>0.3</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Si</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>7406127014.0</t>
+          <t>41796081.0</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>7406127014.0</t>
+          <t>41796081.0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -880,18 +1080,28 @@
       <c r="D21" t="inlineStr">
         <is>
           <t>0.5</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Si</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>17699391.0</t>
+          <t>5089672.0</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>17699391.0</t>
+          <t>5089672.0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -902,18 +1112,28 @@
       <c r="D22" t="inlineStr">
         <is>
           <t>0.7</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Si</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>158477915.0</t>
+          <t>7487529484.0</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>158477915.0</t>
+          <t>7487529484.0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -924,18 +1144,28 @@
       <c r="D23" t="inlineStr">
         <is>
           <t>0.3</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Si</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>35219533287.0</t>
+          <t>9381430344.0</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>35219533287.0</t>
+          <t>9381430344.0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -946,18 +1176,28 @@
       <c r="D24" t="inlineStr">
         <is>
           <t>0.5</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Si</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>211185342964.0</t>
+          <t>30448848485.0</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>211185342964.0</t>
+          <t>30448848485.0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -968,18 +1208,28 @@
       <c r="D25" t="inlineStr">
         <is>
           <t>0.7</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Si</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2745088024.0</t>
+          <t>25007124985.0</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2745088024.0</t>
+          <t>25007124985.0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -990,18 +1240,28 @@
       <c r="D26" t="inlineStr">
         <is>
           <t>0.3</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Si</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3449389636.0</t>
+          <t>78487034532.0</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3449389636.0</t>
+          <t>78487034532.0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1012,18 +1272,28 @@
       <c r="D27" t="inlineStr">
         <is>
           <t>0.5</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Si</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>28555916995.0</t>
+          <t>2339600532.0</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>28555916995.0</t>
+          <t>2339600532.0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1034,18 +1304,28 @@
       <c r="D28" t="inlineStr">
         <is>
           <t>0.7</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Si</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5044727661.0</t>
+          <t>2070223443.0</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>5044727661.0</t>
+          <t>2070223443.0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1056,18 +1336,28 @@
       <c r="D29" t="inlineStr">
         <is>
           <t>0.3</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Si</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>228026437.0</t>
+          <t>1137664558.0</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>228026437.0</t>
+          <t>1137664558.0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1078,18 +1368,28 @@
       <c r="D30" t="inlineStr">
         <is>
           <t>0.5</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Si</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5267167807.0</t>
+          <t>51164994655.0</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>5267167807.0</t>
+          <t>51164994655.0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1100,6 +1400,16 @@
       <c r="D31" t="inlineStr">
         <is>
           <t>0.7</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Si</t>
         </is>
       </c>
     </row>
